--- a/books.xlsx
+++ b/books.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\BackUp-LibrarySite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Web Project\Scout-Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920B7452-C475-49AB-9A72-E76B0693A3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6E4BE1-BF48-4086-8404-D2551BFD873D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="609">
   <si>
     <t>المعرف</t>
   </si>
@@ -1625,13 +1625,235 @@
   </si>
   <si>
     <t>أليزابث جيلبريت</t>
+  </si>
+  <si>
+    <t>سورية التاريخية</t>
+  </si>
+  <si>
+    <t>الباحثون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاريخ العرب والاسلام </t>
+  </si>
+  <si>
+    <t xml:space="preserve">التأثير الارامي في الفكر العربي </t>
+  </si>
+  <si>
+    <t>تاريخ بلاد الرافدين</t>
+  </si>
+  <si>
+    <t>الواقع والاسطورة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاريخ الألمان </t>
+  </si>
+  <si>
+    <t>تاريخ الألمان</t>
+  </si>
+  <si>
+    <t>ثقافة اوغاريت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بلاد الشام </t>
+  </si>
+  <si>
+    <t>بلاد الشام</t>
+  </si>
+  <si>
+    <t>سوء الحضارات القديمة</t>
+  </si>
+  <si>
+    <t>دليل الأبجدية</t>
+  </si>
+  <si>
+    <t>الإنسان</t>
+  </si>
+  <si>
+    <t>كاتب غير معروف</t>
+  </si>
+  <si>
+    <t>محمد عبد الحميد الحمد</t>
+  </si>
+  <si>
+    <t>د. عبد فرعي</t>
+  </si>
+  <si>
+    <t>زينون كاسيدوفسكي</t>
+  </si>
+  <si>
+    <t>د. تغريد جعفر الهاشمي</t>
+  </si>
+  <si>
+    <t>فاين ............</t>
+  </si>
+  <si>
+    <t>...........</t>
+  </si>
+  <si>
+    <t>............</t>
+  </si>
+  <si>
+    <t>د. سلطان محيسن</t>
+  </si>
+  <si>
+    <t>د. عادل زيتون</t>
+  </si>
+  <si>
+    <t>كتب تاريخية</t>
+  </si>
+  <si>
+    <t>نشوء علم التاريخ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بعل وموت </t>
+  </si>
+  <si>
+    <t>رحلة حول العلم</t>
+  </si>
+  <si>
+    <t>افلوطين</t>
+  </si>
+  <si>
+    <t>غزو الفضاء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معلولا </t>
+  </si>
+  <si>
+    <t>سيف الدولة الحمداني</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قصص عن العلامات للناشئة </t>
+  </si>
+  <si>
+    <t>معاهدات سلام</t>
+  </si>
+  <si>
+    <t>آفينهو</t>
+  </si>
+  <si>
+    <t>ابن البيطار</t>
+  </si>
+  <si>
+    <t>ملحمة كلكامش</t>
+  </si>
+  <si>
+    <t>محمد الدنيا</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> رام الياس كرباكي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اسماء وضيع</t>
+  </si>
+  <si>
+    <t>غاستون بوتول</t>
+  </si>
+  <si>
+    <t>أ. وحيد نعيم</t>
+  </si>
+  <si>
+    <t>طه باكر</t>
+  </si>
+  <si>
+    <t>ن.أ.</t>
+  </si>
+  <si>
+    <t>الأحجار تتكلم</t>
+  </si>
+  <si>
+    <t>دمشق عبر التاريخ</t>
+  </si>
+  <si>
+    <t>بانورا مدينة دمشق ......</t>
+  </si>
+  <si>
+    <t>مجالس الكتب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجالس الكتب </t>
+  </si>
+  <si>
+    <t>سورية</t>
+  </si>
+  <si>
+    <t>دراسات في التاريخ الحضاري</t>
+  </si>
+  <si>
+    <t>همس الحروف ×4 ......</t>
+  </si>
+  <si>
+    <t>دمشق اقدم مدينة في التاريخ</t>
+  </si>
+  <si>
+    <t>عطية ارض فلسطين</t>
+  </si>
+  <si>
+    <t>مجتمع اوغاريت</t>
+  </si>
+  <si>
+    <t>دراسات حضارية - أخلاقية - معرفية</t>
+  </si>
+  <si>
+    <t>د. جون إلد</t>
+  </si>
+  <si>
+    <t>علي القيم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جورج جبور </t>
+  </si>
+  <si>
+    <t>محمد الأرناؤوط</t>
+  </si>
+  <si>
+    <t>جان لاندوزي اللعازوي</t>
+  </si>
+  <si>
+    <t>إش شيفان ......</t>
+  </si>
+  <si>
+    <t>122 ...</t>
+  </si>
+  <si>
+    <t>123 ...</t>
+  </si>
+  <si>
+    <t>124 ...</t>
+  </si>
+  <si>
+    <t>125 ...</t>
+  </si>
+  <si>
+    <t>ينابيع الفن السوري</t>
+  </si>
+  <si>
+    <t>إبلا</t>
+  </si>
+  <si>
+    <t>بلاد الشام عصور ما قبل التاريخ</t>
+  </si>
+  <si>
+    <t>سوريا يا مهد الحضارات</t>
+  </si>
+  <si>
+    <t>د. عيد مرعي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">د. سلطان محين </t>
+  </si>
+  <si>
+    <t>كوريل دور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كتب تعليمية </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1675,6 +1897,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1761,7 +1989,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1803,8 +2031,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2225,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C423" sqref="C423"/>
+    <sheetView tabSelected="1" topLeftCell="B471" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D486" sqref="D486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9072,10 +9302,10 @@
       <c r="B317" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="C317" s="24" t="s">
+      <c r="C317" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="D317" s="24">
+      <c r="D317" s="10">
         <v>406</v>
       </c>
       <c r="E317" s="10" t="s">
@@ -11000,8 +11230,15 @@
       <c r="A423" s="4">
         <v>422</v>
       </c>
+      <c r="B423" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C423" s="17"/>
+      <c r="D423" s="10">
+        <v>161</v>
+      </c>
       <c r="E423" s="10" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="F423" s="9" t="s">
         <v>10</v>
@@ -11011,8 +11248,13 @@
       <c r="A424" s="4">
         <v>423</v>
       </c>
+      <c r="B424" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C424" s="17"/>
+      <c r="D424" s="20"/>
       <c r="E424" s="10" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="F424" s="9" t="s">
         <v>10</v>
@@ -11022,19 +11264,37 @@
       <c r="A425" s="4">
         <v>424</v>
       </c>
+      <c r="B425" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C425" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="D425" s="10">
+        <v>204</v>
+      </c>
       <c r="E425" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="F425" s="9" t="s">
-        <v>10</v>
+        <v>559</v>
+      </c>
+      <c r="F425" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A426" s="4">
         <v>425</v>
       </c>
+      <c r="B426" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C426" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D426" s="10">
+        <v>229</v>
+      </c>
       <c r="E426" s="10" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="F426" s="9" t="s">
         <v>10</v>
@@ -11044,8 +11304,17 @@
       <c r="A427" s="4">
         <v>426</v>
       </c>
+      <c r="B427" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C427" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="D427" s="10">
+        <v>135</v>
+      </c>
       <c r="E427" s="10" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="F427" s="9" t="s">
         <v>10</v>
@@ -11055,8 +11324,17 @@
       <c r="A428" s="4">
         <v>427</v>
       </c>
+      <c r="B428" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C428" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="D428" s="10">
+        <v>135</v>
+      </c>
       <c r="E428" s="10" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="F428" s="9" t="s">
         <v>10</v>
@@ -11066,8 +11344,17 @@
       <c r="A429" s="4">
         <v>428</v>
       </c>
+      <c r="B429" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C429" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="D429" s="10">
+        <v>295</v>
+      </c>
       <c r="E429" s="10" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="F429" s="9" t="s">
         <v>10</v>
@@ -11077,8 +11364,17 @@
       <c r="A430" s="4">
         <v>429</v>
       </c>
+      <c r="B430" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="C430" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="D430" s="10">
+        <v>313</v>
+      </c>
       <c r="E430" s="10" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="F430" s="9" t="s">
         <v>10</v>
@@ -11088,8 +11384,17 @@
       <c r="A431" s="4">
         <v>430</v>
       </c>
+      <c r="B431" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C431" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="D431" s="10">
+        <v>582</v>
+      </c>
       <c r="E431" s="10" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="F431" s="9" t="s">
         <v>10</v>
@@ -11099,8 +11404,17 @@
       <c r="A432" s="4">
         <v>431</v>
       </c>
+      <c r="B432" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C432" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="D432" s="10">
+        <v>582</v>
+      </c>
       <c r="E432" s="10" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="F432" s="9" t="s">
         <v>10</v>
@@ -11110,8 +11424,17 @@
       <c r="A433" s="4">
         <v>432</v>
       </c>
+      <c r="B433" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C433" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="D433" s="10">
+        <v>178</v>
+      </c>
       <c r="E433" s="10" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="F433" s="9" t="s">
         <v>10</v>
@@ -11121,8 +11444,17 @@
       <c r="A434" s="4">
         <v>433</v>
       </c>
+      <c r="B434" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C434" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="D434" s="10">
+        <v>178</v>
+      </c>
       <c r="E434" s="10" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="F434" s="9" t="s">
         <v>10</v>
@@ -11132,8 +11464,17 @@
       <c r="A435" s="4">
         <v>434</v>
       </c>
+      <c r="B435" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C435" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="D435" s="10">
+        <v>142</v>
+      </c>
       <c r="E435" s="10" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="F435" s="9" t="s">
         <v>10</v>
@@ -11143,8 +11484,17 @@
       <c r="A436" s="4">
         <v>435</v>
       </c>
+      <c r="B436" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C436" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="D436" s="10">
+        <v>142</v>
+      </c>
       <c r="E436" s="10" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="F436" s="9" t="s">
         <v>10</v>
@@ -11154,8 +11504,17 @@
       <c r="A437" s="4">
         <v>436</v>
       </c>
+      <c r="B437" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C437" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="D437" s="10">
+        <v>142</v>
+      </c>
       <c r="E437" s="10" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="F437" s="9" t="s">
         <v>10</v>
@@ -11165,8 +11524,15 @@
       <c r="A438" s="4">
         <v>437</v>
       </c>
+      <c r="B438" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C438" s="17"/>
+      <c r="D438" s="10">
+        <v>186</v>
+      </c>
       <c r="E438" s="10" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="F438" s="9" t="s">
         <v>10</v>
@@ -11176,8 +11542,15 @@
       <c r="A439" s="4">
         <v>438</v>
       </c>
+      <c r="B439" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C439" s="17"/>
+      <c r="D439" s="10">
+        <v>186</v>
+      </c>
       <c r="E439" s="10" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="F439" s="9" t="s">
         <v>10</v>
@@ -11187,8 +11560,13 @@
       <c r="A440" s="4">
         <v>439</v>
       </c>
+      <c r="B440" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="C440" s="17"/>
+      <c r="D440" s="20"/>
       <c r="E440" s="10" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="F440" s="9" t="s">
         <v>10</v>
@@ -11198,6 +11576,14 @@
       <c r="A441" s="4">
         <v>440</v>
       </c>
+      <c r="B441" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="C441" s="17"/>
+      <c r="D441" s="20"/>
+      <c r="E441" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F441" s="9" t="s">
         <v>10</v>
       </c>
@@ -11206,6 +11592,18 @@
       <c r="A442" s="4">
         <v>441</v>
       </c>
+      <c r="B442" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C442" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="D442" s="10">
+        <v>124</v>
+      </c>
+      <c r="E442" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F442" s="9" t="s">
         <v>10</v>
       </c>
@@ -11214,6 +11612,16 @@
       <c r="A443" s="4">
         <v>442</v>
       </c>
+      <c r="B443" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C443" s="17"/>
+      <c r="D443" s="10">
+        <v>65</v>
+      </c>
+      <c r="E443" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F443" s="9" t="s">
         <v>10</v>
       </c>
@@ -11222,14 +11630,34 @@
       <c r="A444" s="4">
         <v>443</v>
       </c>
-      <c r="F444" s="9" t="s">
-        <v>10</v>
+      <c r="B444" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="C444" s="17"/>
+      <c r="D444" s="10">
+        <v>96</v>
+      </c>
+      <c r="E444" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A445" s="4">
         <v>444</v>
       </c>
+      <c r="B445" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="C445" s="17"/>
+      <c r="D445" s="10">
+        <v>164</v>
+      </c>
+      <c r="E445" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F445" s="9" t="s">
         <v>10</v>
       </c>
@@ -11238,6 +11666,18 @@
       <c r="A446" s="4">
         <v>445</v>
       </c>
+      <c r="B446" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C446" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="D446" s="10">
+        <v>62</v>
+      </c>
+      <c r="E446" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F446" s="9" t="s">
         <v>10</v>
       </c>
@@ -11246,6 +11686,18 @@
       <c r="A447" s="4">
         <v>446</v>
       </c>
+      <c r="B447" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="C447" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="D447" s="10">
+        <v>32</v>
+      </c>
+      <c r="E447" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F447" s="9" t="s">
         <v>10</v>
       </c>
@@ -11254,6 +11706,18 @@
       <c r="A448" s="4">
         <v>447</v>
       </c>
+      <c r="B448" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="C448" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="D448" s="10">
+        <v>127</v>
+      </c>
+      <c r="E448" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F448" s="9" t="s">
         <v>10</v>
       </c>
@@ -11262,6 +11726,18 @@
       <c r="A449" s="4">
         <v>448</v>
       </c>
+      <c r="B449" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="C449" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="D449" s="10">
+        <v>210</v>
+      </c>
+      <c r="E449" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F449" s="9" t="s">
         <v>10</v>
       </c>
@@ -11270,6 +11746,18 @@
       <c r="A450" s="4">
         <v>449</v>
       </c>
+      <c r="B450" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="C450" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="D450" s="10">
+        <v>287</v>
+      </c>
+      <c r="E450" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F450" s="9" t="s">
         <v>10</v>
       </c>
@@ -11278,6 +11766,16 @@
       <c r="A451" s="4">
         <v>450</v>
       </c>
+      <c r="B451" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="C451" s="17"/>
+      <c r="D451" s="10">
+        <v>169</v>
+      </c>
+      <c r="E451" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F451" s="9" t="s">
         <v>10</v>
       </c>
@@ -11286,6 +11784,18 @@
       <c r="A452" s="4">
         <v>451</v>
       </c>
+      <c r="B452" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="C452" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="D452" s="10">
+        <v>47</v>
+      </c>
+      <c r="E452" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F452" s="9" t="s">
         <v>10</v>
       </c>
@@ -11294,6 +11804,18 @@
       <c r="A453" s="4">
         <v>452</v>
       </c>
+      <c r="B453" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C453" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="D453" s="10">
+        <v>108</v>
+      </c>
+      <c r="E453" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F453" s="9" t="s">
         <v>10</v>
       </c>
@@ -11302,6 +11824,18 @@
       <c r="A454" s="4">
         <v>453</v>
       </c>
+      <c r="B454" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="C454" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="D454" s="25">
+        <v>245</v>
+      </c>
+      <c r="E454" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F454" s="9" t="s">
         <v>10</v>
       </c>
@@ -11310,6 +11844,16 @@
       <c r="A455" s="4">
         <v>454</v>
       </c>
+      <c r="B455" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C455" s="17"/>
+      <c r="D455" s="25">
+        <v>16</v>
+      </c>
+      <c r="E455" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F455" s="9" t="s">
         <v>10</v>
       </c>
@@ -11318,6 +11862,16 @@
       <c r="A456" s="4">
         <v>455</v>
       </c>
+      <c r="B456" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C456" s="17"/>
+      <c r="D456" s="25">
+        <v>16</v>
+      </c>
+      <c r="E456" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F456" s="9" t="s">
         <v>10</v>
       </c>
@@ -11326,6 +11880,14 @@
       <c r="A457" s="4">
         <v>456</v>
       </c>
+      <c r="B457" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="C457" s="17"/>
+      <c r="D457" s="20"/>
+      <c r="E457" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F457" s="9" t="s">
         <v>10</v>
       </c>
@@ -11334,6 +11896,18 @@
       <c r="A458" s="4">
         <v>457</v>
       </c>
+      <c r="B458" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C458" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="D458" s="25">
+        <v>293</v>
+      </c>
+      <c r="E458" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F458" s="9" t="s">
         <v>10</v>
       </c>
@@ -11342,6 +11916,18 @@
       <c r="A459" s="4">
         <v>458</v>
       </c>
+      <c r="B459" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C459" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="D459" s="25">
+        <v>293</v>
+      </c>
+      <c r="E459" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F459" s="9" t="s">
         <v>10</v>
       </c>
@@ -11350,6 +11936,18 @@
       <c r="A460" s="4">
         <v>459</v>
       </c>
+      <c r="B460" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C460" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="D460" s="25">
+        <v>293</v>
+      </c>
+      <c r="E460" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F460" s="9" t="s">
         <v>10</v>
       </c>
@@ -11358,6 +11956,18 @@
       <c r="A461" s="4">
         <v>460</v>
       </c>
+      <c r="B461" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C461" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="D461" s="25">
+        <v>145</v>
+      </c>
+      <c r="E461" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F461" s="9" t="s">
         <v>10</v>
       </c>
@@ -11366,6 +11976,18 @@
       <c r="A462" s="4">
         <v>461</v>
       </c>
+      <c r="B462" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C462" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="D462" s="25">
+        <v>145</v>
+      </c>
+      <c r="E462" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F462" s="9" t="s">
         <v>10</v>
       </c>
@@ -11374,6 +11996,18 @@
       <c r="A463" s="4">
         <v>462</v>
       </c>
+      <c r="B463" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C463" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="D463" s="25">
+        <v>145</v>
+      </c>
+      <c r="E463" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F463" s="9" t="s">
         <v>10</v>
       </c>
@@ -11382,6 +12016,18 @@
       <c r="A464" s="4">
         <v>463</v>
       </c>
+      <c r="B464" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C464" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="D464" s="25">
+        <v>168</v>
+      </c>
+      <c r="E464" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F464" s="9" t="s">
         <v>10</v>
       </c>
@@ -11390,6 +12036,18 @@
       <c r="A465" s="4">
         <v>464</v>
       </c>
+      <c r="B465" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C465" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="D465" s="25">
+        <v>168</v>
+      </c>
+      <c r="E465" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F465" s="9" t="s">
         <v>10</v>
       </c>
@@ -11398,6 +12056,18 @@
       <c r="A466" s="4">
         <v>465</v>
       </c>
+      <c r="B466" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C466" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="D466" s="25">
+        <v>168</v>
+      </c>
+      <c r="E466" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F466" s="9" t="s">
         <v>10</v>
       </c>
@@ -11406,6 +12076,18 @@
       <c r="A467" s="4">
         <v>466</v>
       </c>
+      <c r="B467" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="C467" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="D467" s="25">
+        <v>239</v>
+      </c>
+      <c r="E467" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F467" s="9" t="s">
         <v>10</v>
       </c>
@@ -11414,6 +12096,16 @@
       <c r="A468" s="4">
         <v>467</v>
       </c>
+      <c r="B468" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="C468" s="17"/>
+      <c r="D468" s="25">
+        <v>62</v>
+      </c>
+      <c r="E468" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F468" s="9" t="s">
         <v>10</v>
       </c>
@@ -11422,6 +12114,16 @@
       <c r="A469" s="4">
         <v>468</v>
       </c>
+      <c r="B469" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="C469" s="17"/>
+      <c r="D469" s="25">
+        <v>62</v>
+      </c>
+      <c r="E469" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F469" s="9" t="s">
         <v>10</v>
       </c>
@@ -11430,6 +12132,16 @@
       <c r="A470" s="4">
         <v>469</v>
       </c>
+      <c r="B470" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="C470" s="17"/>
+      <c r="D470" s="25">
+        <v>62</v>
+      </c>
+      <c r="E470" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F470" s="9" t="s">
         <v>10</v>
       </c>
@@ -11438,6 +12150,16 @@
       <c r="A471" s="4">
         <v>470</v>
       </c>
+      <c r="B471" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="C471" s="17"/>
+      <c r="D471" s="25">
+        <v>62</v>
+      </c>
+      <c r="E471" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F471" s="9" t="s">
         <v>10</v>
       </c>
@@ -11446,6 +12168,16 @@
       <c r="A472" s="4">
         <v>471</v>
       </c>
+      <c r="B472" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="C472" s="17"/>
+      <c r="D472" s="25">
+        <v>62</v>
+      </c>
+      <c r="E472" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F472" s="9" t="s">
         <v>10</v>
       </c>
@@ -11454,6 +12186,16 @@
       <c r="A473" s="4">
         <v>472</v>
       </c>
+      <c r="B473" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="C473" s="17"/>
+      <c r="D473" s="25">
+        <v>62</v>
+      </c>
+      <c r="E473" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F473" s="9" t="s">
         <v>10</v>
       </c>
@@ -11462,6 +12204,18 @@
       <c r="A474" s="4">
         <v>473</v>
       </c>
+      <c r="B474" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C474" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="D474" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="E474" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F474" s="9" t="s">
         <v>10</v>
       </c>
@@ -11470,6 +12224,18 @@
       <c r="A475" s="4">
         <v>474</v>
       </c>
+      <c r="B475" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C475" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="D475" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="E475" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F475" s="9" t="s">
         <v>10</v>
       </c>
@@ -11478,6 +12244,18 @@
       <c r="A476" s="4">
         <v>475</v>
       </c>
+      <c r="B476" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C476" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="D476" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="E476" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F476" s="9" t="s">
         <v>10</v>
       </c>
@@ -11486,6 +12264,18 @@
       <c r="A477" s="4">
         <v>476</v>
       </c>
+      <c r="B477" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C477" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="D477" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="E477" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F477" s="9" t="s">
         <v>10</v>
       </c>
@@ -11494,6 +12284,18 @@
       <c r="A478" s="4">
         <v>477</v>
       </c>
+      <c r="B478" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C478" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="D478" s="25">
+        <v>238</v>
+      </c>
+      <c r="E478" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F478" s="9" t="s">
         <v>10</v>
       </c>
@@ -11502,6 +12304,18 @@
       <c r="A479" s="4">
         <v>478</v>
       </c>
+      <c r="B479" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C479" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="D479" s="25">
+        <v>238</v>
+      </c>
+      <c r="E479" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F479" s="9" t="s">
         <v>10</v>
       </c>
@@ -11510,6 +12324,18 @@
       <c r="A480" s="4">
         <v>479</v>
       </c>
+      <c r="B480" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C480" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="D480" s="25">
+        <v>238</v>
+      </c>
+      <c r="E480" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F480" s="9" t="s">
         <v>10</v>
       </c>
@@ -11518,6 +12344,16 @@
       <c r="A481" s="4">
         <v>480</v>
       </c>
+      <c r="B481" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C481" s="17"/>
+      <c r="D481" s="25">
+        <v>331</v>
+      </c>
+      <c r="E481" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F481" s="9" t="s">
         <v>10</v>
       </c>
@@ -11526,6 +12362,16 @@
       <c r="A482" s="4">
         <v>481</v>
       </c>
+      <c r="B482" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C482" s="17"/>
+      <c r="D482" s="10">
+        <v>211</v>
+      </c>
+      <c r="E482" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F482" s="9" t="s">
         <v>10</v>
       </c>
@@ -11534,6 +12380,18 @@
       <c r="A483" s="4">
         <v>482</v>
       </c>
+      <c r="B483" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="C483" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="D483" s="10">
+        <v>138</v>
+      </c>
+      <c r="E483" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F483" s="9" t="s">
         <v>10</v>
       </c>
@@ -11542,6 +12400,18 @@
       <c r="A484" s="4">
         <v>483</v>
       </c>
+      <c r="B484" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C484" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="D484" s="10">
+        <v>125</v>
+      </c>
+      <c r="E484" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F484" s="9" t="s">
         <v>10</v>
       </c>
@@ -11550,6 +12420,14 @@
       <c r="A485" s="4">
         <v>484</v>
       </c>
+      <c r="B485" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="C485" s="17"/>
+      <c r="D485" s="20"/>
+      <c r="E485" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="F485" s="9" t="s">
         <v>10</v>
       </c>
@@ -11557,6 +12435,12 @@
     <row r="486" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A486" s="4">
         <v>485</v>
+      </c>
+      <c r="B486" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="E486" s="10" t="s">
+        <v>608</v>
       </c>
       <c r="F486" s="9" t="s">
         <v>10</v>
@@ -11678,6 +12562,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G299">
     <sortCondition ref="A6:A299"/>
   </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>